--- a/data/trans_orig/IP2004-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E5C848-1751-4CCF-9A96-69A3372E9B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF4F852-6885-4261-8457-6841BEA08617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E58E560D-B6EB-4608-BA78-BFF0913779EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7031E460-7A1A-4012-867F-D66B77BFDF26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
   <si>
     <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
   </si>
@@ -104,769 +104,781 @@
     <t>5,84%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D30AB-040B-4BA0-B9BA-411720ED8193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA232AB6-F551-4381-9A36-1BEA6A797B60}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1897,7 +1909,7 @@
         <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1927,13 +1939,13 @@
         <v>158273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -1942,13 +1954,13 @@
         <v>304976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2028,13 @@
         <v>21548</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -2031,13 +2043,13 @@
         <v>22051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2046,13 +2058,13 @@
         <v>43599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2079,13 @@
         <v>659156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -2082,13 +2094,13 @@
         <v>621111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1917</v>
@@ -2097,13 +2109,13 @@
         <v>1280267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2171,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91128ACB-2A2B-49EA-A439-D4B4DF18A097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87385849-8BC9-4731-A1DB-A1776CBDE8F7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,7 +2208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2452,13 +2464,13 @@
         <v>5797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2467,13 +2479,13 @@
         <v>4182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2482,13 +2494,13 @@
         <v>9979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2515,13 @@
         <v>76828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -2518,13 +2530,13 @@
         <v>84577</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>232</v>
@@ -2533,13 +2545,13 @@
         <v>161405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2619,13 @@
         <v>10067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2622,13 +2634,13 @@
         <v>12910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2637,13 +2649,13 @@
         <v>22977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2670,13 @@
         <v>452800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -2673,13 +2685,13 @@
         <v>405455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>1237</v>
@@ -2688,13 +2700,13 @@
         <v>858255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2774,13 @@
         <v>1255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2777,13 +2789,13 @@
         <v>3864</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2792,13 +2804,13 @@
         <v>5119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,10 +2825,10 @@
         <v>154767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2828,7 +2840,7 @@
         <v>151229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>137</v>
@@ -2935,10 +2947,10 @@
         <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2947,13 +2959,13 @@
         <v>38075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2980,13 @@
         <v>685036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -2983,13 +2995,13 @@
         <v>641261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -2998,13 +3010,13 @@
         <v>1326297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,7 +3072,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB896705-60B7-4606-B864-A4135BB0D8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF7300-E274-441B-B586-3541D6FE24BD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3353,13 @@
         <v>1988</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3356,13 +3368,13 @@
         <v>2857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3371,13 +3383,13 @@
         <v>4845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3404,13 @@
         <v>65386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -3407,13 +3419,13 @@
         <v>53408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>174</v>
@@ -3422,13 +3434,13 @@
         <v>118793</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3511,10 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3511,13 +3523,13 @@
         <v>13732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3526,13 +3538,13 @@
         <v>22480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3559,13 @@
         <v>455035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3562,13 +3574,13 @@
         <v>426633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
         <v>1289</v>
@@ -3577,13 +3589,13 @@
         <v>881668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3663,13 @@
         <v>713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3666,13 +3678,13 @@
         <v>2002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3681,13 +3693,13 @@
         <v>2715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,10 +3714,10 @@
         <v>169025</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3717,13 +3729,13 @@
         <v>160006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -3732,13 +3744,13 @@
         <v>329031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3818,13 @@
         <v>11449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3821,13 +3833,13 @@
         <v>18592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3836,13 +3848,13 @@
         <v>30040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3869,13 @@
         <v>689446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
@@ -3872,13 +3884,13 @@
         <v>640045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1945</v>
@@ -3887,13 +3899,13 @@
         <v>1329492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3961,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B34EA3-AB1F-4C9D-A80A-1B72C6F243A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF92A3-BBCD-404D-A813-3B602337E047}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,13 +4254,13 @@
         <v>2803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4257,13 +4269,13 @@
         <v>391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4272,13 +4284,13 @@
         <v>3194</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>54059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -4308,10 +4320,10 @@
         <v>49763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4323,13 +4335,13 @@
         <v>103822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4409,13 @@
         <v>9071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4412,13 +4424,13 @@
         <v>6765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4427,13 +4439,13 @@
         <v>15836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4460,13 @@
         <v>472568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -4463,13 +4475,13 @@
         <v>436135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>1237</v>
@@ -4478,13 +4490,13 @@
         <v>908703</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4564,13 @@
         <v>4402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4567,13 +4579,13 @@
         <v>720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4582,13 +4594,13 @@
         <v>5123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4615,13 @@
         <v>168960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4618,10 +4630,10 @@
         <v>148635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -4633,13 +4645,13 @@
         <v>317593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4719,13 @@
         <v>16277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4722,13 +4734,13 @@
         <v>7876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4737,13 +4749,13 @@
         <v>24153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4770,13 @@
         <v>695586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -4773,13 +4785,13 @@
         <v>635704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>1834</v>
@@ -4788,13 +4800,13 @@
         <v>1331289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4862,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2004-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF4F852-6885-4261-8457-6841BEA08617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00406028-F733-4FE0-A77D-B2559FB32FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7031E460-7A1A-4012-867F-D66B77BFDF26}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D5D44BB4-B9A6-4F65-BB32-AF995214D337}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
-  <si>
-    <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="266">
+  <si>
+    <t>Menores según si le sangran las encías en 2007 (Tasa respuesta: 94,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,715 +68,703 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>97,4%</t>
@@ -785,100 +773,70 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA232AB6-F551-4381-9A36-1BEA6A797B60}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF54CF9-C29C-47C9-B2DE-835002ADA8A2}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1408,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6635</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1423,81 +1381,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4798</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>80895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>77296</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>158191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,151 +1468,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>87530</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82094</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>169625</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>4798</v>
+        <v>12372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>6635</v>
+        <v>16750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>11434</v>
+        <v>29122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>575</v>
       </c>
       <c r="D8" s="7">
-        <v>77296</v>
+        <v>381944</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="I8" s="7">
-        <v>80895</v>
+        <v>434430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>237</v>
+        <v>1229</v>
       </c>
       <c r="N8" s="7">
-        <v>158191</v>
+        <v>816374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,153 +1623,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>123</v>
+        <v>594</v>
       </c>
       <c r="D9" s="7">
-        <v>82094</v>
+        <v>394316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>131</v>
+        <v>680</v>
       </c>
       <c r="I9" s="7">
-        <v>87530</v>
+        <v>451180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>254</v>
+        <v>1274</v>
       </c>
       <c r="N9" s="7">
-        <v>169625</v>
+        <v>845496</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>16750</v>
+        <v>3043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>12372</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>29122</v>
+        <v>3043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>654</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7">
-        <v>434430</v>
+        <v>158273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>575</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>381944</v>
+        <v>146703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>1229</v>
+        <v>450</v>
       </c>
       <c r="N11" s="7">
-        <v>816374</v>
+        <v>304976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,153 +1778,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>680</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>451180</v>
+        <v>161316</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>594</v>
+        <v>219</v>
       </c>
       <c r="I12" s="7">
-        <v>394316</v>
+        <v>146703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1274</v>
+        <v>454</v>
       </c>
       <c r="N12" s="7">
-        <v>845496</v>
+        <v>308019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22051</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>3043</v>
+        <v>21548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>3043</v>
+        <v>43599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>927</v>
       </c>
       <c r="D14" s="7">
-        <v>146703</v>
+        <v>621111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>989</v>
       </c>
       <c r="I14" s="7">
-        <v>158273</v>
+        <v>658429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>450</v>
+        <v>1916</v>
       </c>
       <c r="N14" s="7">
-        <v>304976</v>
+        <v>1279541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,216 +1933,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>960</v>
       </c>
       <c r="D15" s="7">
-        <v>146703</v>
+        <v>643162</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1022</v>
       </c>
       <c r="I15" s="7">
-        <v>161316</v>
+        <v>679977</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>454</v>
+        <v>1982</v>
       </c>
       <c r="N15" s="7">
-        <v>308019</v>
+        <v>1323140</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7">
-        <v>21548</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22051</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
-      <c r="N16" s="7">
-        <v>43599</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>990</v>
-      </c>
-      <c r="D17" s="7">
-        <v>659156</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>927</v>
-      </c>
-      <c r="I17" s="7">
-        <v>621111</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1280267</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="D18" s="7">
-        <v>680704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>960</v>
-      </c>
-      <c r="I18" s="7">
-        <v>643162</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1983</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1323866</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2191,8 +1999,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87385849-8BC9-4731-A1DB-A1776CBDE8F7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E9DBB6-BDF8-47D7-9954-3D8CC9684C2A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2208,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2309,96 +2117,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4182</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5797</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="7">
         <v>13</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9979</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>84577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I5" s="7">
+        <v>76828</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>161405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,151 +2219,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>171384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>5797</v>
+        <v>12910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>4182</v>
+        <v>10067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>9979</v>
+        <v>22977</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>109</v>
+        <v>587</v>
       </c>
       <c r="D8" s="7">
-        <v>76828</v>
+        <v>405455</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>123</v>
+        <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>84577</v>
+        <v>452800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
-        <v>232</v>
+        <v>1237</v>
       </c>
       <c r="N8" s="7">
-        <v>161405</v>
+        <v>858255</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,153 +2374,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>605</v>
       </c>
       <c r="D9" s="7">
-        <v>82625</v>
+        <v>418365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>664</v>
       </c>
       <c r="I9" s="7">
-        <v>88759</v>
+        <v>462867</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>1269</v>
       </c>
       <c r="N9" s="7">
-        <v>171384</v>
+        <v>881232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>10067</v>
+        <v>3864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>12910</v>
+        <v>1255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>22977</v>
+        <v>5119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>650</v>
+        <v>214</v>
       </c>
       <c r="D11" s="7">
-        <v>452800</v>
+        <v>151229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>587</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>405455</v>
+        <v>154767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1237</v>
+        <v>433</v>
       </c>
       <c r="N11" s="7">
-        <v>858255</v>
+        <v>305997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,153 +2529,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>664</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>462867</v>
+        <v>155093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>605</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>418365</v>
+        <v>156022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1269</v>
+        <v>440</v>
       </c>
       <c r="N12" s="7">
-        <v>881232</v>
+        <v>311116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>1255</v>
+        <v>20955</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>3864</v>
+        <v>17120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>5119</v>
+        <v>38075</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>154767</v>
+        <v>641262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
-        <v>214</v>
+        <v>978</v>
       </c>
       <c r="I14" s="7">
-        <v>151229</v>
+        <v>684395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
-        <v>433</v>
+        <v>1902</v>
       </c>
       <c r="N14" s="7">
-        <v>305997</v>
+        <v>1325656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,216 +2684,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>953</v>
       </c>
       <c r="D15" s="7">
-        <v>156022</v>
+        <v>662217</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>155093</v>
+        <v>701515</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>440</v>
+        <v>1954</v>
       </c>
       <c r="N15" s="7">
-        <v>311116</v>
+        <v>1363731</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7">
-        <v>17120</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20955</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="7">
-        <v>52</v>
-      </c>
-      <c r="N16" s="7">
-        <v>38075</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>979</v>
-      </c>
-      <c r="D17" s="7">
-        <v>685036</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="7">
-        <v>924</v>
-      </c>
-      <c r="I17" s="7">
-        <v>641261</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1903</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1326297</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1002</v>
-      </c>
-      <c r="D18" s="7">
-        <v>702156</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>953</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662216</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1955</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1364372</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3092,8 +2750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF7300-E274-441B-B586-3541D6FE24BD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A46FBA-2DC9-4863-9CBC-EC92CFE1DE9A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3109,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3210,88 +2868,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2857</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1988</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4845</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53408</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65386</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="N5" s="7">
+        <v>118793</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,147 +2970,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56265</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67374</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="N6" s="7">
+        <v>123638</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>1988</v>
+        <v>13732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>2857</v>
+        <v>8748</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>4845</v>
+        <v>22480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>94</v>
+        <v>642</v>
       </c>
       <c r="D8" s="7">
-        <v>65386</v>
+        <v>426633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="I8" s="7">
-        <v>53408</v>
+        <v>455035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>1289</v>
       </c>
       <c r="N8" s="7">
-        <v>118793</v>
+        <v>881668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,153 +3125,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>662</v>
       </c>
       <c r="D9" s="7">
-        <v>67374</v>
+        <v>440365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>56265</v>
+        <v>463783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>181</v>
+        <v>1321</v>
       </c>
       <c r="N9" s="7">
-        <v>123638</v>
+        <v>904148</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>8748</v>
+        <v>2002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>13732</v>
+        <v>713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>22480</v>
+        <v>2715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>647</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>455035</v>
+        <v>160006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
-        <v>642</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>426633</v>
+        <v>169025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1289</v>
+        <v>482</v>
       </c>
       <c r="N11" s="7">
-        <v>881668</v>
+        <v>329031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,153 +3280,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>659</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>463783</v>
+        <v>162008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>662</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>440365</v>
+        <v>169738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1321</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>904148</v>
+        <v>331746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>713</v>
+        <v>18592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>2002</v>
+        <v>11449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>2715</v>
+        <v>30040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>961</v>
       </c>
       <c r="D14" s="7">
-        <v>169025</v>
+        <v>640045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
-        <v>239</v>
+        <v>984</v>
       </c>
       <c r="I14" s="7">
-        <v>160006</v>
+        <v>689446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
-        <v>482</v>
+        <v>1945</v>
       </c>
       <c r="N14" s="7">
-        <v>329031</v>
+        <v>1329492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,216 +3435,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>988</v>
       </c>
       <c r="D15" s="7">
-        <v>169738</v>
+        <v>658637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>162008</v>
+        <v>700895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>331746</v>
+        <v>1359532</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7">
-        <v>11449</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18592</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M16" s="7">
-        <v>43</v>
-      </c>
-      <c r="N16" s="7">
-        <v>30040</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>984</v>
-      </c>
-      <c r="D17" s="7">
-        <v>689446</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="7">
-        <v>961</v>
-      </c>
-      <c r="I17" s="7">
-        <v>640045</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1945</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1329492</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658637</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1359532</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3981,8 +3501,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF92A3-BBCD-404D-A813-3B602337E047}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC93DF86-FD20-40FA-B1EF-74DD60B419BD}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3998,7 +3518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4099,96 +3619,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>391</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53308</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>56980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>110288</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,151 +3721,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>2803</v>
+        <v>6567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>9544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>3194</v>
+        <v>16111</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>619</v>
       </c>
       <c r="D8" s="7">
-        <v>54059</v>
+        <v>446850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>618</v>
       </c>
       <c r="I8" s="7">
-        <v>49763</v>
+        <v>496039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>1237</v>
       </c>
       <c r="N8" s="7">
-        <v>103822</v>
+        <v>942890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,153 +3876,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>56862</v>
+        <v>453417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>631</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1259</v>
       </c>
       <c r="N9" s="7">
-        <v>107016</v>
+        <v>959001</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>9071</v>
+        <v>692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>6765</v>
+        <v>4690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>15836</v>
+        <v>5382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>618</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>472568</v>
+        <v>146846</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7">
+        <v>229</v>
+      </c>
+      <c r="I11" s="7">
+        <v>177389</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="7">
-        <v>619</v>
-      </c>
-      <c r="I11" s="7">
-        <v>436135</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="M11" s="7">
-        <v>1237</v>
+        <v>453</v>
       </c>
       <c r="N11" s="7">
-        <v>908703</v>
+        <v>324235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,153 +4031,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>631</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>481639</v>
+        <v>147538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>442900</v>
+        <v>182079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1259</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>924539</v>
+        <v>329617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>4402</v>
+        <v>7651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>720</v>
+        <v>17057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>5123</v>
+        <v>24707</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>909</v>
       </c>
       <c r="D14" s="7">
-        <v>168960</v>
+        <v>647003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>924</v>
       </c>
       <c r="I14" s="7">
-        <v>148635</v>
+        <v>730408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>453</v>
+        <v>1833</v>
       </c>
       <c r="N14" s="7">
-        <v>317593</v>
+        <v>1377413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,216 +4186,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>920</v>
       </c>
       <c r="D15" s="7">
-        <v>173362</v>
+        <v>654654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>946</v>
       </c>
       <c r="I15" s="7">
-        <v>149355</v>
+        <v>747465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1866</v>
       </c>
       <c r="N15" s="7">
-        <v>322716</v>
+        <v>1402120</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16277</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7876</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24153</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>924</v>
-      </c>
-      <c r="D17" s="7">
-        <v>695586</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="7">
-        <v>910</v>
-      </c>
-      <c r="I17" s="7">
-        <v>635704</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1834</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1331289</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>946</v>
-      </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
-      <c r="I18" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
